--- a/biology/Zoologie/Bengt_Euphrasén/Bengt_Euphrasén.xlsx
+++ b/biology/Zoologie/Bengt_Euphrasén/Bengt_Euphrasén.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bengt_Euphras%C3%A9n</t>
+          <t>Bengt_Euphrasén</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bengt Anders Euphrasén (né le 26 avril 1755 dans la paroisse d'Habo en Westrogothie et mort le jour de Noël 1796 à Stockholm) est un botaniste, ichtyologiste et explorateur suédois.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bengt_Euphras%C3%A9n</t>
+          <t>Bengt_Euphrasén</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bengt Euphrasen fait ses premières études à Visingsö, puis après avoir commencé des études de vétérinaire à Skara, il décide d'entrer comme jeune matelot à la Compagnie suédoise des Indes orientales et s'embarque à bord de la Louisa Ulrica à destination de la Chine, où il finit par recueillir des spécimens de flore pour le naturaliste Clas Alströmer.
 À son retour en Suède, il herborise dans le Bohuslän (il s'intéresse en particulier aux euphraises) et entre à l'université d'Uppsala le 24 février 1783. Il est plus âgé et plus expérimenté que ses compagnons d'études après ses années en mer.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bengt_Euphras%C3%A9n</t>
+          <t>Bengt_Euphrasén</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Raja narinari; in Neue Abhandlungen der Kgl. Schwedischen Akademie; T. 11, pp. 205–207; 1790
 Aetobatus narinari; 1790
